--- a/data/output/FV2504_FV2410/UTILMD/55062.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55062.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="301">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="301">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1009,6 +1009,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U126" totalsRowShown="0">
+  <autoFilter ref="A1:U126"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1298,7 +1328,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7407,5 +7440,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55062.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55062.xlsx
@@ -1832,7 +1832,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3914,54 +3914,54 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="2" t="s">
         <v>271</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="V43" s="5" t="s">
+      <c r="V43" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
         <v>272</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4580,7 +4580,7 @@
         <v>272</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6148,7 +6148,7 @@
         <v>274</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6354,7 +6354,7 @@
         <v>275</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7182,7 +7182,7 @@
         <v>277</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7580,54 +7580,54 @@
       <c r="V112" s="5"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D113" s="5" t="s">
+      <c r="C113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K113" s="5" t="s">
+      <c r="K113" s="2" t="s">
         <v>278</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M113" s="5" t="s">
+      <c r="M113" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N113" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O113" s="5" t="s">
+      <c r="N113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O113" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P113" s="5"/>
+      <c r="P113" s="2"/>
       <c r="Q113" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5" t="s">
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="V113" s="5" t="s">
+      <c r="V113" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7826,7 +7826,7 @@
         <v>280</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7954,52 +7954,52 @@
       <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K120" s="5"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N120" s="5" t="s">
+      <c r="N120" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O120" s="5" t="s">
+      <c r="O120" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P120" s="5"/>
+      <c r="P120" s="2"/>
       <c r="Q120" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5" t="s">
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="V120" s="5"/>
+      <c r="V120" s="2"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -8178,48 +8178,48 @@
       <c r="V123" s="5"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5" t="s">
+      <c r="C124" s="2"/>
+      <c r="D124" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="2"/>
       <c r="F124" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5" t="s">
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K124" s="5"/>
+      <c r="K124" s="2"/>
       <c r="L124" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M124" s="5" t="s">
+      <c r="M124" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5" t="s">
+      <c r="N124" s="2"/>
+      <c r="O124" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P124" s="5"/>
+      <c r="P124" s="2"/>
       <c r="Q124" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5" t="s">
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="V124" s="5"/>
+      <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="5" t="s">
